--- a/medicine/Mort/Excarnation/Excarnation.xlsx
+++ b/medicine/Mort/Excarnation/Excarnation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'excarnation, en archéologie et en anthropologie, est la pratique consistant à enlever la chair et les organes des morts avant leur enterrement, ne laissant que les os.
 L'excarnation peut être précipitée par des moyens naturels, impliquant de laisser le corps exposé aux animaux, ou celui-ci peut être délibérément entrepris en dépeçant manuellement le cadavre.
